--- a/data and code/Raw data/Figure3/olteanu.xlsx
+++ b/data and code/Raw data/Figure3/olteanu.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Publications\2024_osmReview\data and code\Raw data\Figure3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\PhD\Writing\J_OSMassessment\OSM_review\figs_vos_bib\author_move\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F7CF7-43C7-4993-BEBC-55759769310A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D3BCE3-E282-4B8E-96CD-D5F7C0FF5D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5980" windowHeight="1890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="3630" windowWidth="19200" windowHeight="9970" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="98" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -144,22 +140,13 @@
   </si>
   <si>
     <t>LASTIG</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -203,20 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,131 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sun, Yao" refreshedDate="45732.900710532405" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{BC6C86D1-EDC0-4303-B766-2890F95C0F75}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C2:C12" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2023" count="7">
-        <n v="2023"/>
-        <n v="2022"/>
-        <n v="2021"/>
-        <n v="2020"/>
-        <n v="2019"/>
-        <n v="2017"/>
-        <n v="2015"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5E377078-A768-4038-B662-9C44F5847B62}" name="PivotTable31" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of year" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,105 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80E697-673C-4F5D-BF1C-9B6072D4C9A6}">
-  <dimension ref="A3:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
@@ -782,19 +548,19 @@
     <col min="8" max="8" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,11 +584,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C3">
@@ -844,11 +610,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C4">
@@ -870,11 +636,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -896,11 +662,11 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C6">
@@ -922,11 +688,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C7">
@@ -948,11 +714,11 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C8">
@@ -974,11 +740,11 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C9">
@@ -1000,11 +766,11 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C10">
@@ -1026,11 +792,11 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C11">
@@ -1052,11 +818,11 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C12">
